--- a/docs/TestCases.xlsx
+++ b/docs/TestCases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s530486\Desktop\bricks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s530486\Desktop\bricks\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="113">
   <si>
     <t>`</t>
   </si>
@@ -305,9 +305,6 @@
     <t>Annie_</t>
   </si>
   <si>
-    <t xml:space="preserve">Doesn’t even show error message </t>
-  </si>
-  <si>
     <t>If it exists in the Excel sheet</t>
   </si>
   <si>
@@ -351,6 +348,21 @@
   </si>
   <si>
     <t>As responsive as it can be</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shows error message </t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Many results even with single space in them</t>
+  </si>
+  <si>
+    <t>Payment Page</t>
+  </si>
+  <si>
+    <t>Navigates to the new page for payment</t>
   </si>
 </sst>
 </file>
@@ -694,10 +706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1219,6 +1231,9 @@
       <c r="C38" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="D38" s="3" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
@@ -1228,10 +1243,10 @@
         <v>92</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>3</v>
+        <v>109</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1245,7 +1260,7 @@
         <v>1</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1298,13 +1313,13 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1312,10 +1327,10 @@
         <v>47</v>
       </c>
       <c r="B47" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1329,7 +1344,7 @@
         <v>1</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1340,7 +1355,7 @@
         <v>1</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1351,7 +1366,7 @@
         <v>1</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1362,7 +1377,7 @@
         <v>1</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1373,7 +1388,7 @@
         <v>1</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1384,7 +1399,7 @@
         <v>1</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1395,7 +1410,7 @@
         <v>1</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1406,7 +1421,7 @@
         <v>1</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1414,16 +1429,27 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D58" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B58" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>99</v>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/docs/TestCases.xlsx
+++ b/docs/TestCases.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="114">
   <si>
     <t>`</t>
   </si>
@@ -363,6 +363,9 @@
   </si>
   <si>
     <t>Navigates to the new page for payment</t>
+  </si>
+  <si>
+    <t>minimum is 2 and no maximum limit</t>
   </si>
 </sst>
 </file>
@@ -708,8 +711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -717,7 +720,7 @@
     <col min="1" max="1" width="32.42578125" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" style="3" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="30.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="47" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1332,6 +1335,9 @@
       <c r="C47" s="3" t="s">
         <v>96</v>
       </c>
+      <c r="D47" s="3" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2"/>

--- a/docs/TestCases.xlsx
+++ b/docs/TestCases.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="117">
   <si>
     <t>`</t>
   </si>
@@ -366,6 +366,15 @@
   </si>
   <si>
     <t>minimum is 2 and no maximum limit</t>
+  </si>
+  <si>
+    <t>Wrong Search</t>
+  </si>
+  <si>
+    <t>Mistake in One of the words</t>
+  </si>
+  <si>
+    <t>Shows results with the matching word itself</t>
   </si>
 </sst>
 </file>
@@ -709,10 +718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1267,194 +1276,213 @@
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="1"/>
+      <c r="A41" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B42" s="3">
-        <v>1</v>
+        <v>114</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D42" s="3">
-        <v>259</v>
+      <c r="D42" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B43" s="3">
-        <v>0</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="A43" s="1"/>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B44" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D44" s="3">
-        <v>16</v>
+        <v>259</v>
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="1"/>
+      <c r="A45" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B45" s="3">
+        <v>0</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B46" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D46" s="3" t="s">
+      <c r="C48" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="2" t="s">
+    <row r="49" spans="1:4">
+      <c r="A49" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B49" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C49" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D49" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="2"/>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>100</v>
-      </c>
+      <c r="A50" s="2"/>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="1"/>
+      <c r="A57" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="1"/>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B58" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D58" s="3" t="s">
+      <c r="C60" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D60" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="1" t="s">
+    <row r="61" spans="1:4">
+      <c r="A61" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C59" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D59" s="3" t="s">
+      <c r="C61" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D61" s="3" t="s">
         <v>112</v>
       </c>
     </row>
